--- a/biology/Zoologie/Diamant_vert-bleu/Diamant_vert-bleu.xlsx
+++ b/biology/Zoologie/Diamant_vert-bleu/Diamant_vert-bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrura cyaneovirens
 Le Diamant vert-bleu ou Pape royal ou Pape de Samoa (Erythrura cyaneovirens) est une petite espèce de passereaux se trouvant sur les îles de Savaii et d'Upolu (ouest de l'Archipel des Samoa).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 11 cm. Il a la tête rouge, la poitrine, le menton, gorge et la nuque bleu clair. Il a le début du dos et des ailes bleu-clair qui graduellement mais assez vite deviennent verts. Le ventre est à 1/3 vert et passe graduellement au bleu pour être à 2/3 bleu-clair, croupion rouge et queue très courte. La femelle est plus terne que le mâle. Le bec est noir et seul le mâle chante.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat et alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils vivent sur l'île d'Upolu, se déplacent par groupe de 30 à 50 individus en quête de nourriture. Ils se nourrissent de graines d'herbes et de plantes.
 </t>
@@ -574,7 +590,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils pondent 3 ou 4 œufs et au bout de 14 jours, les œufs éclosent.
 </t>
@@ -605,7 +623,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Erythrospiza serena</t>
         </is>
@@ -635,7 +655,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il existe quatre sous-espèces :
 Erythrura cyaneovirens cyaneovirens  (Peale, 1848)
